--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H2">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I2">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J2">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.290228054182965</v>
+        <v>0.3015963333333334</v>
       </c>
       <c r="N2">
-        <v>0.290228054182965</v>
+        <v>0.9047890000000001</v>
       </c>
       <c r="O2">
-        <v>0.5943164590385835</v>
+        <v>0.4737402899861982</v>
       </c>
       <c r="P2">
-        <v>0.5943164590385835</v>
+        <v>0.5687660179545673</v>
       </c>
       <c r="Q2">
-        <v>51.60404587500373</v>
+        <v>59.47422852477712</v>
       </c>
       <c r="R2">
-        <v>51.60404587500373</v>
+        <v>535.2680567229941</v>
       </c>
       <c r="S2">
-        <v>0.2894673632413721</v>
+        <v>0.2375200274386187</v>
       </c>
       <c r="T2">
-        <v>0.2894673632413721</v>
+        <v>0.3016093045619781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H3">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I3">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J3">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.198111196344376</v>
+        <v>0.01594066666666667</v>
       </c>
       <c r="N3">
-        <v>0.198111196344376</v>
+        <v>0.047822</v>
       </c>
       <c r="O3">
-        <v>0.4056835409614166</v>
+        <v>0.02503921704145383</v>
       </c>
       <c r="P3">
-        <v>0.4056835409614166</v>
+        <v>0.03006173650500096</v>
       </c>
       <c r="Q3">
-        <v>35.22519314436114</v>
+        <v>3.143469423823556</v>
       </c>
       <c r="R3">
-        <v>35.22519314436114</v>
+        <v>28.291224814412</v>
       </c>
       <c r="S3">
-        <v>0.1975919447065164</v>
+        <v>0.01255395761019379</v>
       </c>
       <c r="T3">
-        <v>0.1975919447065164</v>
+        <v>0.01594135225203104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>124.104456267658</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H4">
-        <v>124.104456267658</v>
+        <v>591.594346</v>
       </c>
       <c r="I4">
-        <v>0.3399576833042308</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J4">
-        <v>0.3399576833042308</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.290228054182965</v>
+        <v>0.319091</v>
       </c>
       <c r="N4">
-        <v>0.290228054182965</v>
+        <v>0.638182</v>
       </c>
       <c r="O4">
-        <v>0.5943164590385835</v>
+        <v>0.5012204929723481</v>
       </c>
       <c r="P4">
-        <v>0.5943164590385835</v>
+        <v>0.4011722455404317</v>
       </c>
       <c r="Q4">
-        <v>36.01859485799725</v>
+        <v>62.92414381982867</v>
       </c>
       <c r="R4">
-        <v>36.01859485799725</v>
+        <v>377.544862918972</v>
       </c>
       <c r="S4">
-        <v>0.2020424465643306</v>
+        <v>0.2512978265940997</v>
       </c>
       <c r="T4">
-        <v>0.2020424465643306</v>
+        <v>0.2127364824328902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H5">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I5">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J5">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.198111196344376</v>
+        <v>0.3015963333333334</v>
       </c>
       <c r="N5">
-        <v>0.198111196344376</v>
+        <v>0.9047890000000001</v>
       </c>
       <c r="O5">
-        <v>0.4056835409614166</v>
+        <v>0.4737402899861982</v>
       </c>
       <c r="P5">
-        <v>0.4056835409614166</v>
+        <v>0.5687660179545673</v>
       </c>
       <c r="Q5">
-        <v>24.58648230285402</v>
+        <v>39.59160807341134</v>
       </c>
       <c r="R5">
-        <v>24.58648230285402</v>
+        <v>356.324472660702</v>
       </c>
       <c r="S5">
-        <v>0.1379152367399002</v>
+        <v>0.158115541288914</v>
       </c>
       <c r="T5">
-        <v>0.1379152367399002</v>
+        <v>0.2007793572729953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.188644155035509</v>
+        <v>131.273506</v>
       </c>
       <c r="H6">
-        <v>0.188644155035509</v>
+        <v>393.820518</v>
       </c>
       <c r="I6">
-        <v>0.0005167504201174162</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J6">
-        <v>0.0005167504201174162</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.290228054182965</v>
+        <v>0.01594066666666667</v>
       </c>
       <c r="N6">
-        <v>0.290228054182965</v>
+        <v>0.047822</v>
       </c>
       <c r="O6">
-        <v>0.5943164590385835</v>
+        <v>0.02503921704145383</v>
       </c>
       <c r="P6">
-        <v>0.5943164590385835</v>
+        <v>0.03006173650500096</v>
       </c>
       <c r="Q6">
-        <v>0.05474982604894535</v>
+        <v>2.092587201310667</v>
       </c>
       <c r="R6">
-        <v>0.05474982604894535</v>
+        <v>18.833284811796</v>
       </c>
       <c r="S6">
-        <v>0.0003071132798908832</v>
+        <v>0.008357088133828379</v>
       </c>
       <c r="T6">
-        <v>0.0003071132798908832</v>
+        <v>0.01061205477023834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.188644155035509</v>
+        <v>131.273506</v>
       </c>
       <c r="H7">
-        <v>0.188644155035509</v>
+        <v>393.820518</v>
       </c>
       <c r="I7">
-        <v>0.0005167504201174162</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J7">
-        <v>0.0005167504201174162</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.198111196344376</v>
+        <v>0.319091</v>
       </c>
       <c r="N7">
-        <v>0.198111196344376</v>
+        <v>0.638182</v>
       </c>
       <c r="O7">
-        <v>0.4056835409614166</v>
+        <v>0.5012204929723481</v>
       </c>
       <c r="P7">
-        <v>0.4056835409614166</v>
+        <v>0.4011722455404317</v>
       </c>
       <c r="Q7">
-        <v>0.03737251923745863</v>
+        <v>41.888194303046</v>
       </c>
       <c r="R7">
-        <v>0.03737251923745863</v>
+        <v>251.329165818276</v>
       </c>
       <c r="S7">
-        <v>0.000209637140226533</v>
+        <v>0.167287332799429</v>
       </c>
       <c r="T7">
-        <v>0.000209637140226533</v>
+        <v>0.1416172961687141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.194865120116253</v>
+        <v>0.278468</v>
       </c>
       <c r="H8">
-        <v>0.194865120116253</v>
+        <v>0.835404</v>
       </c>
       <c r="I8">
-        <v>0.000533791426865837</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J8">
-        <v>0.000533791426865837</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.290228054182965</v>
+        <v>0.3015963333333334</v>
       </c>
       <c r="N8">
-        <v>0.290228054182965</v>
+        <v>0.9047890000000001</v>
       </c>
       <c r="O8">
-        <v>0.5943164590385835</v>
+        <v>0.4737402899861982</v>
       </c>
       <c r="P8">
-        <v>0.5943164590385835</v>
+        <v>0.5687660179545673</v>
       </c>
       <c r="Q8">
-        <v>0.05655532463946986</v>
+        <v>0.08398492775066667</v>
       </c>
       <c r="R8">
-        <v>0.05655532463946986</v>
+        <v>0.755864349756</v>
       </c>
       <c r="S8">
-        <v>0.0003172410306800573</v>
+        <v>0.000335407500669947</v>
       </c>
       <c r="T8">
-        <v>0.0003172410306800573</v>
+        <v>0.0004259094448280863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.194865120116253</v>
+        <v>0.278468</v>
       </c>
       <c r="H9">
-        <v>0.194865120116253</v>
+        <v>0.835404</v>
       </c>
       <c r="I9">
-        <v>0.000533791426865837</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J9">
-        <v>0.000533791426865837</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.198111196344376</v>
+        <v>0.01594066666666667</v>
       </c>
       <c r="N9">
-        <v>0.198111196344376</v>
+        <v>0.047822</v>
       </c>
       <c r="O9">
-        <v>0.4056835409614166</v>
+        <v>0.02503921704145383</v>
       </c>
       <c r="P9">
-        <v>0.4056835409614166</v>
+        <v>0.03006173650500096</v>
       </c>
       <c r="Q9">
-        <v>0.03860496207202141</v>
+        <v>0.004438965565333334</v>
       </c>
       <c r="R9">
-        <v>0.03860496207202141</v>
+        <v>0.03995069008800001</v>
       </c>
       <c r="S9">
-        <v>0.0002165503961857798</v>
+        <v>1.772773265041707E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002165503961857798</v>
+        <v>2.251115063353858E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.7654157191024</v>
+        <v>0.278468</v>
       </c>
       <c r="H10">
-        <v>62.7654157191024</v>
+        <v>0.835404</v>
       </c>
       <c r="I10">
-        <v>0.1719324669008976</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J10">
-        <v>0.1719324669008976</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.290228054182965</v>
+        <v>0.319091</v>
       </c>
       <c r="N10">
-        <v>0.290228054182965</v>
+        <v>0.638182</v>
       </c>
       <c r="O10">
-        <v>0.5943164590385835</v>
+        <v>0.5012204929723481</v>
       </c>
       <c r="P10">
-        <v>0.5943164590385835</v>
+        <v>0.4011722455404317</v>
       </c>
       <c r="Q10">
-        <v>18.21628447413998</v>
+        <v>0.088856632588</v>
       </c>
       <c r="R10">
-        <v>18.21628447413998</v>
+        <v>0.5331397955280001</v>
       </c>
       <c r="S10">
-        <v>0.1021822949223099</v>
+        <v>0.0003548634481506983</v>
       </c>
       <c r="T10">
-        <v>0.1021822949223099</v>
+        <v>0.0003004100860192572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2270173333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.681052</v>
+      </c>
+      <c r="I11">
+        <v>0.0005771865085793579</v>
+      </c>
+      <c r="J11">
+        <v>0.0006104742535155658</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3015963333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.9047890000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4737402899861982</v>
+      </c>
+      <c r="P11">
+        <v>0.5687660179545673</v>
+      </c>
+      <c r="Q11">
+        <v>0.06846759533644445</v>
+      </c>
+      <c r="R11">
+        <v>0.616208358028</v>
+      </c>
+      <c r="S11">
+        <v>0.0002734365039505063</v>
+      </c>
+      <c r="T11">
+        <v>0.0003472170102358354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2270173333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.681052</v>
+      </c>
+      <c r="I12">
+        <v>0.0005771865085793579</v>
+      </c>
+      <c r="J12">
+        <v>0.0006104742535155658</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01594066666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.047822</v>
+      </c>
+      <c r="O12">
+        <v>0.02503921704145383</v>
+      </c>
+      <c r="P12">
+        <v>0.03006173650500096</v>
+      </c>
+      <c r="Q12">
+        <v>0.003618807638222222</v>
+      </c>
+      <c r="R12">
+        <v>0.032569268744</v>
+      </c>
+      <c r="S12">
+        <v>1.44522982617175E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.83519161522721E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>62.7654157191024</v>
-      </c>
-      <c r="H11">
-        <v>62.7654157191024</v>
-      </c>
-      <c r="I11">
-        <v>0.1719324669008976</v>
-      </c>
-      <c r="J11">
-        <v>0.1719324669008976</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.198111196344376</v>
-      </c>
-      <c r="N11">
-        <v>0.198111196344376</v>
-      </c>
-      <c r="O11">
-        <v>0.4056835409614166</v>
-      </c>
-      <c r="P11">
-        <v>0.4056835409614166</v>
-      </c>
-      <c r="Q11">
-        <v>12.43453159716348</v>
-      </c>
-      <c r="R11">
-        <v>12.43453159716348</v>
-      </c>
-      <c r="S11">
-        <v>0.06975017197858768</v>
-      </c>
-      <c r="T11">
-        <v>0.06975017197858768</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2270173333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.681052</v>
+      </c>
+      <c r="I13">
+        <v>0.0005771865085793579</v>
+      </c>
+      <c r="J13">
+        <v>0.0006104742535155658</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.319091</v>
+      </c>
+      <c r="N13">
+        <v>0.638182</v>
+      </c>
+      <c r="O13">
+        <v>0.5012204929723481</v>
+      </c>
+      <c r="P13">
+        <v>0.4011722455404317</v>
+      </c>
+      <c r="Q13">
+        <v>0.07243918791066667</v>
+      </c>
+      <c r="R13">
+        <v>0.434635127464</v>
+      </c>
+      <c r="S13">
+        <v>0.0002892977063671342</v>
+      </c>
+      <c r="T13">
+        <v>0.0002449053271274583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>64.34001000000001</v>
+      </c>
+      <c r="H14">
+        <v>128.68002</v>
+      </c>
+      <c r="I14">
+        <v>0.1635830409448661</v>
+      </c>
+      <c r="J14">
+        <v>0.1153448476061565</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3015963333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.9047890000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4737402899861982</v>
+      </c>
+      <c r="P14">
+        <v>0.5687660179545673</v>
+      </c>
+      <c r="Q14">
+        <v>19.40471110263</v>
+      </c>
+      <c r="R14">
+        <v>116.42826661578</v>
+      </c>
+      <c r="S14">
+        <v>0.07749587725404498</v>
+      </c>
+      <c r="T14">
+        <v>0.06560422966453001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>64.34001000000001</v>
+      </c>
+      <c r="H15">
+        <v>128.68002</v>
+      </c>
+      <c r="I15">
+        <v>0.1635830409448661</v>
+      </c>
+      <c r="J15">
+        <v>0.1153448476061565</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01594066666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.047822</v>
+      </c>
+      <c r="O15">
+        <v>0.02503921704145383</v>
+      </c>
+      <c r="P15">
+        <v>0.03006173650500096</v>
+      </c>
+      <c r="Q15">
+        <v>1.02562265274</v>
+      </c>
+      <c r="R15">
+        <v>6.153735916440001</v>
+      </c>
+      <c r="S15">
+        <v>0.004095991266519531</v>
+      </c>
+      <c r="T15">
+        <v>0.003467466415945767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>64.34001000000001</v>
+      </c>
+      <c r="H16">
+        <v>128.68002</v>
+      </c>
+      <c r="I16">
+        <v>0.1635830409448661</v>
+      </c>
+      <c r="J16">
+        <v>0.1153448476061565</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.319091</v>
+      </c>
+      <c r="N16">
+        <v>0.638182</v>
+      </c>
+      <c r="O16">
+        <v>0.5012204929723481</v>
+      </c>
+      <c r="P16">
+        <v>0.4011722455404317</v>
+      </c>
+      <c r="Q16">
+        <v>20.53031813091</v>
+      </c>
+      <c r="R16">
+        <v>82.12127252364002</v>
+      </c>
+      <c r="S16">
+        <v>0.08199117242430158</v>
+      </c>
+      <c r="T16">
+        <v>0.04627315152568068</v>
       </c>
     </row>
   </sheetData>
